--- a/macro_aplicada_patentes_anos.xlsx
+++ b/macro_aplicada_patentes_anos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcase\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcase\Documents\Projetos_R\macro_aplicada_patentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C8DF93-1166-4652-80C9-3EFA7C01B0EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC66DF8-76B1-4448-B87B-959EC0034CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3250" yWindow="230" windowWidth="10700" windowHeight="7640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -399,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -419,73 +419,84 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>1906</v>
+      <c r="A2">
+        <v>1905</v>
       </c>
       <c r="B2">
-        <v>11250</v>
+        <v>10467</v>
       </c>
       <c r="C2">
-        <v>11290</v>
+        <v>10494</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <f t="shared" ref="A3:A7" si="0">A2+1</f>
-        <v>1907</v>
+        <v>1906</v>
       </c>
       <c r="B3">
-        <v>12024</v>
+        <v>11250</v>
       </c>
       <c r="C3">
-        <v>12049</v>
+        <v>11290</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>1908</v>
+        <f t="shared" ref="A4:A8" si="0">A3+1</f>
+        <v>1907</v>
       </c>
       <c r="B4">
-        <v>13267</v>
+        <v>12024</v>
       </c>
       <c r="C4">
-        <v>13335</v>
+        <v>12049</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
-        <v>1909</v>
+        <v>1908</v>
       </c>
       <c r="B5">
-        <v>15056</v>
+        <v>13267</v>
       </c>
       <c r="C5">
-        <v>15126</v>
+        <v>13335</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
-        <v>1910</v>
+        <v>1909</v>
       </c>
       <c r="B6">
-        <v>16667</v>
+        <v>15056</v>
       </c>
       <c r="C6">
-        <v>16719</v>
+        <v>15126</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
+        <v>1910</v>
+      </c>
+      <c r="B7">
+        <v>16667</v>
+      </c>
+      <c r="C7">
+        <v>16719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <f t="shared" si="0"/>
         <v>1911</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>18012</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>18079</v>
       </c>
     </row>
